--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 3/Lab 3.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 3/Lab 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC9B38-4B08-4B46-A322-B457C930BCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275E3D7-8539-4026-BEC0-74F65830E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,15 +106,25 @@
   <si>
     <t>lag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment 3.a Pure Inductive AC Circuit</t>
+  </si>
+  <si>
+    <t>Experiment 3.b RL Series Circuit</t>
+  </si>
+  <si>
+    <t>Experiment 3.c RL Parallel Circuit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="183" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -148,12 +156,18 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,16 +194,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,374 +546,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53952F-1CC0-470C-B051-7988D4853FCE}">
-  <dimension ref="A3:K17"/>
+  <dimension ref="A3:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="127" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="127" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.59765625" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.5546875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="B5" s="4">
-        <f>2*PI()*A5*100*10^-3</f>
+      <c r="B6" s="3">
+        <f>2*PI()*A6*100*10^-3</f>
         <v>62.831853071795862</v>
       </c>
-      <c r="C5" s="4">
-        <f>SQRT(1^2+B5^2)</f>
+      <c r="C6" s="3">
+        <f>SQRT(1^2+B6^2)</f>
         <v>62.839810315084044</v>
       </c>
-      <c r="D5" s="4">
-        <f>DEGREES(ATAN(B5/1))</f>
+      <c r="D6" s="3">
+        <f>DEGREES(ATAN(B6/1))</f>
         <v>89.088186330386165</v>
       </c>
-      <c r="E5" s="4">
-        <f>5/C5</f>
+      <c r="E6" s="3">
+        <f>5/C6</f>
         <v>7.956739485573848E-2</v>
       </c>
-      <c r="F5" s="4">
-        <f>-D5</f>
+      <c r="F6" s="3">
+        <f>-D6</f>
         <v>-89.088186330386165</v>
       </c>
-      <c r="G5" s="4">
-        <f>E5</f>
+      <c r="G6" s="3">
+        <f>E6</f>
         <v>7.956739485573848E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>9.0449999999999992E-3</v>
       </c>
-      <c r="I5" s="4">
-        <f>F5</f>
+      <c r="I6" s="3">
+        <f>F6</f>
         <v>-89.088186330386165</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="2">
         <f>-170.35+180</f>
         <v>9.6500000000000057</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>500</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" ref="B6:B8" si="0">2*PI()*A6*100*10^-3</f>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:B9" si="0">2*PI()*A7*100*10^-3</f>
         <v>314.15926535897927</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C8" si="1">SQRT(1^2+B6^2)</f>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:C9" si="1">SQRT(1^2+B7^2)</f>
         <v>314.16085690437876</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D8" si="2">DEGREES(ATAN(B6/1))</f>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D9" si="2">DEGREES(ATAN(B7/1))</f>
         <v>89.817622485398985</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E8" si="3">5/C6</f>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E9" si="3">5/C7</f>
         <v>1.5915413680966155E-2</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F8" si="4">-D6</f>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F9" si="4">-D7</f>
         <v>-89.817622485398985</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G7" si="5">E6</f>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G8" si="5">E7</f>
         <v>1.5915413680966155E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="4">
         <v>6.7780000000000002E-3</v>
       </c>
-      <c r="I6" s="4">
-        <f>F6</f>
+      <c r="I7" s="3">
+        <f>F7</f>
         <v>-89.817622485398985</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <f>-134.02+180</f>
         <v>45.97999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>628.31853071795854</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>628.31932649217003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>89.908811011716651</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>7.9577370760094048E-3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="4"/>
         <v>-89.908811011716651</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="5"/>
         <v>7.9577370760094048E-3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>4.6319999999999998E-3</v>
       </c>
-      <c r="I7" s="4">
-        <f>F7</f>
+      <c r="I8" s="3">
+        <f>F8</f>
         <v>-89.908811011716651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <f>-114.95+180</f>
         <v>65.05</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>10000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6283.1853071795858</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>6283.1853867570571</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>89.990881093549177</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>7.9577470538087238E-4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="4"/>
         <v>-89.990881093549177</v>
       </c>
-      <c r="G8" s="4">
-        <f>E8</f>
+      <c r="G9" s="3">
+        <f>E9</f>
         <v>7.9577470538087238E-4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>1.8240000000000001E-3</v>
       </c>
-      <c r="I8" s="4">
-        <f>F8</f>
+      <c r="I9" s="3">
+        <f>F9</f>
         <v>-89.990881093549177</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <f>80.14</f>
         <v>80.14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <f>2*SQRT(2)/SQRT(2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="C13" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.98E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>1.9202999999999999</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>1.9200999999999999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>5.4299999999999997E-4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="8">
         <v>1.8393999999999999E-3</v>
       </c>
-      <c r="F12" s="2">
-        <f>D12/E12</f>
+      <c r="F14" s="2">
+        <f>D14/E14</f>
         <v>0.29520495813852343</v>
       </c>
-      <c r="G12" s="2">
-        <f>B12/E12</f>
+      <c r="G14" s="2">
+        <f>B14/E14</f>
         <v>1043.9817331738611</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H14" s="2">
         <v>73.709999999999994</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>99.4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E19" s="2">
         <v>3.3794999999999999E-2</v>
       </c>
-      <c r="F17" s="2">
-        <f>E17-G17</f>
+      <c r="F19" s="2">
+        <f>E19-G19</f>
         <v>1.1334E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <v>2.2460999999999998E-2</v>
       </c>
-      <c r="H17" s="2">
-        <f>D17/G17</f>
+      <c r="H19" s="2">
+        <f>D19/G19</f>
         <v>99.728418147010387</v>
       </c>
-      <c r="I17" s="2">
-        <f>B17/E17</f>
+      <c r="I19" s="2">
+        <f>B19/E19</f>
         <v>66.281994377866553</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <f>(-70.3+-66.1)/2+180</f>
         <v>111.80000000000001</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 3/Lab 3.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 3/Lab 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275E3D7-8539-4026-BEC0-74F65830E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E2730-CCFD-4E09-94DC-ECC13E3F0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="183" formatCode="0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,17 +200,17 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,460 +546,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53952F-1CC0-470C-B051-7988D4853FCE}">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="127" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:G19"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.5546875" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="12.53125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.53125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.53125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3">
+        <f>2*PI()*A4*100*10^-3</f>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SQRT(1^2+B4^2)</f>
+        <v>62.839810315084044</v>
+      </c>
+      <c r="D4" s="3">
+        <f>DEGREES(ATAN(B4/1))</f>
+        <v>89.088186330386165</v>
+      </c>
+      <c r="E4" s="3">
+        <f>5/C4</f>
+        <v>7.956739485573848E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>-D4</f>
+        <v>-89.088186330386165</v>
+      </c>
+      <c r="G4" s="3">
+        <f>E4</f>
+        <v>7.956739485573848E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.0449999999999992E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <f>F4</f>
+        <v>-89.088186330386165</v>
+      </c>
+      <c r="J4" s="2">
+        <f>-170.35+180</f>
+        <v>9.6500000000000057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>500</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" si="0">2*PI()*A5*100*10^-3</f>
+        <v>314.15926535897927</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C7" si="1">SQRT(1^2+B5^2)</f>
+        <v>314.16085690437876</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D7" si="2">DEGREES(ATAN(B5/1))</f>
+        <v>89.817622485398985</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E7" si="3">5/C5</f>
+        <v>1.5915413680966155E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F7" si="4">-D5</f>
+        <v>-89.817622485398985</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G6" si="5">E5</f>
+        <v>1.5915413680966155E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.7780000000000002E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <f>F5</f>
+        <v>-89.817622485398985</v>
+      </c>
+      <c r="J5" s="2">
+        <f>-134.02+180</f>
+        <v>45.97999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="3">
-        <f>2*PI()*A6*100*10^-3</f>
-        <v>62.831853071795862</v>
+        <f t="shared" si="0"/>
+        <v>628.31853071795854</v>
       </c>
       <c r="C6" s="3">
-        <f>SQRT(1^2+B6^2)</f>
-        <v>62.839810315084044</v>
+        <f t="shared" si="1"/>
+        <v>628.31932649217003</v>
       </c>
       <c r="D6" s="3">
-        <f>DEGREES(ATAN(B6/1))</f>
-        <v>89.088186330386165</v>
+        <f t="shared" si="2"/>
+        <v>89.908811011716651</v>
       </c>
       <c r="E6" s="3">
-        <f>5/C6</f>
-        <v>7.956739485573848E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.9577370760094048E-3</v>
       </c>
       <c r="F6" s="3">
-        <f>-D6</f>
-        <v>-89.088186330386165</v>
+        <f t="shared" si="4"/>
+        <v>-89.908811011716651</v>
       </c>
       <c r="G6" s="3">
-        <f>E6</f>
-        <v>7.956739485573848E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.9577370760094048E-3</v>
       </c>
       <c r="H6" s="2">
-        <v>9.0449999999999992E-3</v>
+        <v>4.6319999999999998E-3</v>
       </c>
       <c r="I6" s="3">
         <f>F6</f>
-        <v>-89.088186330386165</v>
+        <v>-89.908811011716651</v>
       </c>
       <c r="J6" s="2">
-        <f>-170.35+180</f>
-        <v>9.6500000000000057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <f>-114.95+180</f>
+        <v>65.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B9" si="0">2*PI()*A7*100*10^-3</f>
-        <v>314.15926535897927</v>
+        <f t="shared" si="0"/>
+        <v>6283.1853071795858</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C9" si="1">SQRT(1^2+B7^2)</f>
-        <v>314.16085690437876</v>
+        <f t="shared" si="1"/>
+        <v>6283.1853867570571</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D9" si="2">DEGREES(ATAN(B7/1))</f>
-        <v>89.817622485398985</v>
+        <f t="shared" si="2"/>
+        <v>89.990881093549177</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E9" si="3">5/C7</f>
-        <v>1.5915413680966155E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.9577470538087238E-4</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F9" si="4">-D7</f>
-        <v>-89.817622485398985</v>
+        <f t="shared" si="4"/>
+        <v>-89.990881093549177</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G8" si="5">E7</f>
-        <v>1.5915413680966155E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.7780000000000002E-3</v>
+        <f>E7</f>
+        <v>7.9577470538087238E-4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.8240000000000001E-3</v>
       </c>
       <c r="I7" s="3">
         <f>F7</f>
-        <v>-89.817622485398985</v>
+        <v>-89.990881093549177</v>
       </c>
       <c r="J7" s="2">
-        <f>-134.02+180</f>
-        <v>45.97999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>628.31853071795854</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>628.31932649217003</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>89.908811011716651</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="3"/>
-        <v>7.9577370760094048E-3</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="4"/>
-        <v>-89.908811011716651</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="5"/>
-        <v>7.9577370760094048E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.6319999999999998E-3</v>
-      </c>
-      <c r="I8" s="3">
-        <f>F8</f>
-        <v>-89.908811011716651</v>
-      </c>
-      <c r="J8" s="2">
-        <f>-114.95+180</f>
-        <v>65.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>6283.1853071795858</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>6283.1853867570571</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>89.990881093549177</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="3"/>
-        <v>7.9577470538087238E-4</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="4"/>
-        <v>-89.990881093549177</v>
-      </c>
-      <c r="G9" s="3">
-        <f>E9</f>
-        <v>7.9577470538087238E-4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.8240000000000001E-3</v>
-      </c>
-      <c r="I9" s="3">
-        <f>F9</f>
-        <v>-89.990881093549177</v>
-      </c>
-      <c r="J9" s="2">
         <f>80.14</f>
         <v>80.14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B11" s="2">
         <f>2*SQRT(2)/SQRT(2)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C11" s="2">
         <v>1.98</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D11" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E11" s="2">
         <v>1.98E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F11" s="2">
         <v>99.9</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G11" s="2">
         <v>1004</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H11" s="2">
         <v>5.7</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B12" s="2">
         <v>1.9202999999999999</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C12" s="2">
         <v>1.9200999999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D12" s="2">
         <v>5.4299999999999997E-4</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E12" s="5">
         <v>1.8393999999999999E-3</v>
       </c>
-      <c r="F14" s="2">
-        <f>D14/E14</f>
+      <c r="F12" s="2">
+        <f>D12/E12</f>
         <v>0.29520495813852343</v>
       </c>
-      <c r="G14" s="2">
-        <f>B14/E14</f>
+      <c r="G12" s="2">
+        <f>B12/E12</f>
         <v>1043.9817331738611</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H12" s="2">
         <v>73.709999999999994</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B16" s="2">
         <v>2.8</v>
       </c>
-      <c r="E18" s="2">
+      <c r="C16" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="E16" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F16" s="2">
         <v>2.8</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G16" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H16" s="2">
         <v>99.9</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I16" s="2">
         <v>99.4</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J16" s="2">
         <v>84</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B17" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C17" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D17" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E17" s="2">
         <v>3.3794999999999999E-2</v>
       </c>
-      <c r="F19" s="2">
-        <f>E19-G19</f>
+      <c r="F17" s="2">
+        <f>E17-G17</f>
         <v>1.1334E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G17" s="2">
         <v>2.2460999999999998E-2</v>
       </c>
-      <c r="H19" s="2">
-        <f>D19/G19</f>
+      <c r="H17" s="2">
+        <f>D17/G17</f>
         <v>99.728418147010387</v>
       </c>
-      <c r="I19" s="2">
-        <f>B19/E19</f>
+      <c r="I17" s="2">
+        <f>B17/E17</f>
         <v>66.281994377866553</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J17" s="2">
         <f>(-70.3+-66.1)/2+180</f>
         <v>111.80000000000001</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
